--- a/biology/Botanique/Sarcolaenaceae/Sarcolaenaceae.xlsx
+++ b/biology/Botanique/Sarcolaenaceae/Sarcolaenaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Sarcolénacées regroupe des plantes dicotylédones ; elle comprend 60 espèces réparties en 2 à 10 genres.
 Ce sont des arbres ou des arbustes, généralement à feuillage persistant, des régions tropicales, originaires de Madagascar.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Sarcolaena, composé des mots grec σαρκός / sarkos, chair, et χλαινα / chlaina, « vêtement, couverture »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Sarcolaena, composé des mots grec σαρκός / sarkos, chair, et χλαινα / chlaina, « vêtement, couverture ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malvales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 octobre 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 octobre 2016) :
 Eremolaena (en) Baill. (1884)
 Leptolaena (en) Thouars (1805)
 Mediusella (en) (Cavaco) Hutch., Fam. Fl. Pl., Dicot. (1973)
@@ -587,7 +605,7 @@
 Schizolaena (en) Thouars (1805)
 Xerochlamys (en) Baker (1882)
 Xyloolaena (en) Baill. (1879)
-Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[3] :
+Selon Angiosperm Phylogeny Website                        (16 octobre 2016) :
 Eremolaena Baill. (1884)
 Leptolaena Thouars (1805)
 Mediusella (Cavaco) Hutch., Fam. Fl. Pl., Dicot. (1973)
@@ -597,11 +615,11 @@
 Sarcolaena Thouars (1805)
 Schizolaena Thouars (1805)
 Xyloölaena Baill. (1879)
-Selon NCBI  (16 octobre 2016)[4] :
+Selon NCBI  (16 octobre 2016) :
 Leptolaena
 Sarcolaena
 Schizolaena
-Selon DELTA Angio           (16 octobre 2016)[5] :
+Selon DELTA Angio           (16 octobre 2016) :
 Eremolaena
 Leptolaena
 Mediusella
@@ -639,9 +657,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 juin 2010) :
 genre Eremolaena Baill. (1884)
 Eremolaena humblotiana Baill. (1884)
 Eremolaena rotundifolia (F.Gérard) Danguy (1915)
@@ -715,7 +735,7 @@
 Xyloolaena richardii (Baill.) Baill. (1884)
 Xyloolaena sambiranensis Lowry &amp; G.E.Schatz (2002)
 Xyloolaena speciosa Lowry &amp; G.E.Schatz (2002)
-Selon NCBI  (22 juin 2010)[7] :
+Selon NCBI  (22 juin 2010) :
 genre Leptolaena
 Leptolaena multiflora
 genre Sarcolaena
